--- a/biology/Botanique/Raifort/Raifort.xlsx
+++ b/biology/Botanique/Raifort/Raifort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armoracia rusticana
 Le Raifort (Armoracia rusticana) est une espèce de plante herbacée vivace de la famille des Brassicacées, de la sous-famille des Brassicoideae, cultivée pour sa racine à usage condimentaire.
@@ -514,20 +526,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymie
-Armoracia armoracia (L.) Britton
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Armoracia armoracia (L.) Britton
 Cochlearia armoracia L.
 Armoracia lapathifolia Gilib.
 Nasturtium armoracia (L.) Fr.
 Radicula armoracia (L.) B.L. Rob.
-Rorippa armoracia (L.) Hitchc.
-Étymologie
-Armoracia serait[1] le nom donné par Pline à une Brassicacée de la province du Pont (actuellement le nord de la Turquie, sur les rives de la mer Noire) : probablement le radis.
-Le mot « raifort » signifie simplement « racine forte » en ancien français (raiz fort)[1].
-Noms communs
-Raifort sauvage, cranson, moutarde des Allemands, cran de Bretagne, radis de cheval, herbe aux cuillers, herbe au scorbut, wasabi alsacien.
-En Allemagne : Meerrettich et Kren ; en Angleterre : horseradish ; en Espagne : rábano picante ; en Hollande : mierikswortel ; en Italie : rafano ; en Pologne : chrzan ; au Portugal : raiz-forte.
-Voir aussi chrain.</t>
+Rorippa armoracia (L.) Hitchc.</t>
         </is>
       </c>
     </row>
@@ -552,12 +562,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plante à très grandes feuilles, jusqu'à 40-50 cm de long. Tiges florales de 60 cm de haut environ portant de petites fleurs blanches ou jaune poussin, généralement stériles, regroupées en grappes. Elle dégage une très forte odeur.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Armoracia serait le nom donné par Pline à une Brassicacée de la province du Pont (actuellement le nord de la Turquie, sur les rives de la mer Noire) : probablement le radis.
+Le mot « raifort » signifie simplement « racine forte » en ancien français (raiz fort).
 </t>
         </is>
       </c>
@@ -583,46 +600,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms communs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Raifort sauvage, cranson, moutarde des Allemands, cran de Bretagne, radis de cheval, herbe aux cuillers, herbe au scorbut, wasabi alsacien.
+En Allemagne : Meerrettich et Kren ; en Angleterre : horseradish ; en Espagne : rábano picante ; en Hollande : mierikswortel ; en Italie : rafano ; en Pologne : chrzan ; au Portugal : raiz-forte.
+Voir aussi chrain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Raifort</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raifort</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante à très grandes feuilles, jusqu'à 40-50 cm de long. Tiges florales de 60 cm de haut environ portant de petites fleurs blanches ou jaune poussin, généralement stériles, regroupées en grappes. Elle dégage une très forte odeur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Raifort</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raifort</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Multiplication par « éclats », c'est-à-dire des fragments de racines de 30 cm de long, mis en place dès que le sol est travaillable.
 Demande un sol frais, profond, bien fumé ou riche en humus.
 Récolte au plus tôt l'année suivant la plantation, à partir de septembre, en fonction des besoins.
-Sa zone de rusticité se situe entre 4 et 8[2].
+Sa zone de rusticité se situe entre 4 et 8.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Raifort</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Raifort</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La racine de raifort râpée est utilisée en condiment, comme substitut à la moutarde. Elle a une saveur très forte, piquante et poivrée, due à la présence de deux glucosinolates, la sinigrine et la gluconasturtiine[3],[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La racine de raifort râpée est utilisée en condiment, comme substitut à la moutarde. Elle a une saveur très forte, piquante et poivrée, due à la présence de deux glucosinolates, la sinigrine et la gluconasturtiine,.
 Contrairement à d'autres condiments comme le piment ou la moutarde, l'effet piquant disparaît entre chaque bouchée.
 Elle est employée principalement en France en Alsace et au-delà à l'Est en Allemagne et les pays d'Europe centrale et orientale (Autriche, Hongrie, Roumanie, Pologne, Ukraine, Biélorussie, Russie...) pour relever les sauces et les viandes. En Angleterre, une sauce faite de raifort râpé, vinaigre, moutarde et crème liquide accompagne le roast beef. Aux États-Unis, sa culture et ses usages sont importants, notamment dans les fast-foods.
 Le raifort est souvent utilisé dans la cuisine italienne. Dans le nord de l'Italie il est utilisé pour la préparation du ragoût de bœuf « bollito misto » tandis que dans le sud du pays, précisément en Basilicate, il est l'élément essentiel d'une omelette appelé « rafanata ».
@@ -635,36 +727,76 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Raifort</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Raifort</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antiquité
-Dans l'Athènes classique, Aristophane et Lucien nous rapportent qu'en cas de flagrant délit d'adultère, le mari trompé pouvait s'il le souhaitait séquestrer l'amant de sa femme pour lui faire subir des peines infamantes, en particulier la sodomie à l'aide d'un raifort[5].
-Calendrier républicain
-Le raifort voit son nom attribué au 12e jour du mois de frimaire du calendrier républicain ou révolutionnaire français[6], généralement chaque 2 décembre du calendrier grégorien.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'Athènes classique, Aristophane et Lucien nous rapportent qu'en cas de flagrant délit d'adultère, le mari trompé pouvait s'il le souhaitait séquestrer l'amant de sa femme pour lui faire subir des peines infamantes, en particulier la sodomie à l'aide d'un raifort.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Raifort</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raifort</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le raifort voit son nom attribué au 12e jour du mois de frimaire du calendrier républicain ou révolutionnaire français, généralement chaque 2 décembre du calendrier grégorien.
 </t>
         </is>
       </c>
